--- a/doc/progress.xlsx
+++ b/doc/progress.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="102">
   <si>
     <t>Date</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -403,6 +403,34 @@
   </si>
   <si>
     <t>Scene change[Planet -&gt; Space]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Scene Loading</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ScreenShot from camera &amp; use it</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Make portal in/exit position</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>How to play music ignoring audio source position</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Object</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlayerShip 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlayerShip 2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -469,91 +497,7 @@
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="14">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <fill>
         <patternFill>
@@ -844,10 +788,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E90"/>
+  <dimension ref="B2:E97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="E92" sqref="E92"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="B97" sqref="B97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1809,6 +1753,9 @@
       <c r="D85" t="s">
         <v>89</v>
       </c>
+      <c r="E85" s="3">
+        <v>43396</v>
+      </c>
     </row>
     <row r="86" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B86" s="3">
@@ -1863,6 +1810,98 @@
       </c>
       <c r="D90" t="s">
         <v>94</v>
+      </c>
+    </row>
+    <row r="91" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B91" s="3">
+        <v>43395</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D91" t="s">
+        <v>95</v>
+      </c>
+      <c r="E91" s="3">
+        <v>43396</v>
+      </c>
+    </row>
+    <row r="92" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B92" s="3">
+        <v>43396</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D92" t="s">
+        <v>96</v>
+      </c>
+      <c r="E92" s="3">
+        <v>43396</v>
+      </c>
+    </row>
+    <row r="93" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B93" s="3">
+        <v>43396</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D93" t="s">
+        <v>97</v>
+      </c>
+      <c r="E93" s="3">
+        <v>43396</v>
+      </c>
+    </row>
+    <row r="94" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B94" s="3">
+        <v>43396</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D94" t="s">
+        <v>98</v>
+      </c>
+      <c r="E94" s="3">
+        <v>43396</v>
+      </c>
+    </row>
+    <row r="95" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B95" s="3">
+        <v>43394</v>
+      </c>
+      <c r="C95" t="s">
+        <v>99</v>
+      </c>
+      <c r="D95" t="s">
+        <v>100</v>
+      </c>
+      <c r="E95" s="3">
+        <v>43394</v>
+      </c>
+    </row>
+    <row r="96" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B96" s="3">
+        <v>43394</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E96" s="3">
+        <v>43394</v>
+      </c>
+    </row>
+    <row r="97" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B97" s="3">
+        <v>43396</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1872,10 +1911,10 @@
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D3:D300">
-    <cfRule type="expression" dxfId="3" priority="71">
+    <cfRule type="expression" dxfId="1" priority="71">
       <formula>AND((COUNTBLANK($E3) = 0), (COUNTBLANK($D3) = 0))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="72">
+    <cfRule type="expression" dxfId="0" priority="72">
       <formula>AND((COUNTBLANK($E3) = 1), (COUNTBLANK($D3) = 0))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/doc/progress.xlsx
+++ b/doc/progress.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="108">
   <si>
     <t>Date</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -431,6 +431,30 @@
   </si>
   <si>
     <t>PlayerShip 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Animation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Player FPS Animation(shot, run, move)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Player FPS Anim Controller</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Player TPS Anim Controller</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Player TPS Anmation(need animator layer)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -788,10 +812,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E97"/>
+  <dimension ref="B2:E101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="B97" sqref="B97"/>
+    <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
+      <selection activeCell="D97" sqref="D97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1896,12 +1920,66 @@
         <v>43394</v>
       </c>
     </row>
-    <row r="97" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B97" s="3">
         <v>43396</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="98" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B98" s="3">
+        <v>43398</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D98" t="s">
+        <v>103</v>
+      </c>
+      <c r="E98" s="3">
+        <v>43398</v>
+      </c>
+    </row>
+    <row r="99" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B99" s="3">
+        <v>43398</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D99" t="s">
+        <v>107</v>
+      </c>
+      <c r="E99" s="3"/>
+    </row>
+    <row r="100" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B100" s="3">
+        <v>43398</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D100" t="s">
+        <v>105</v>
+      </c>
+      <c r="E100" s="3">
+        <v>43398</v>
+      </c>
+    </row>
+    <row r="101" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B101" s="3">
+        <v>43398</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D101" t="s">
+        <v>106</v>
+      </c>
+      <c r="E101" s="3">
+        <v>43398</v>
       </c>
     </row>
   </sheetData>

--- a/doc/progress.xlsx
+++ b/doc/progress.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="117">
   <si>
     <t>Date</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -455,6 +455,42 @@
   </si>
   <si>
     <t>Player TPS Anmation(need animator layer)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Human input in Universe FPS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Human input in Universe TPS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Human input in Planet FPS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Human input in Planet TPS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ship input in Planet FPS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ship input in Planet TPS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Camera smooth with interpolation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NewGame Chara, Ship Select</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NewGame Chara, Ship MouseOnUI</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -812,10 +848,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E101"/>
+  <dimension ref="B2:E110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
-      <selection activeCell="D97" sqref="D97"/>
+    <sheetView tabSelected="1" topLeftCell="A96" workbookViewId="0">
+      <selection activeCell="D111" sqref="D111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1980,6 +2016,111 @@
       </c>
       <c r="E101" s="3">
         <v>43398</v>
+      </c>
+    </row>
+    <row r="102" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B102" s="3">
+        <v>43399</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D102" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="103" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B103" s="3">
+        <v>43399</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D103" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="104" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B104" s="3">
+        <v>43399</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D104" t="s">
+        <v>110</v>
+      </c>
+      <c r="E104" s="3">
+        <v>43399</v>
+      </c>
+    </row>
+    <row r="105" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B105" s="3">
+        <v>43399</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D105" t="s">
+        <v>111</v>
+      </c>
+      <c r="E105" s="3">
+        <v>43399</v>
+      </c>
+    </row>
+    <row r="106" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B106" s="3">
+        <v>43399</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D106" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="107" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B107" s="3">
+        <v>43399</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D107" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="108" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B108" s="3">
+        <v>43399</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D108" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="109" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B109" s="3">
+        <v>43399</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D109" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="110" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B110" s="3">
+        <v>43399</v>
+      </c>
+      <c r="C110" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D110" t="s">
+        <v>116</v>
       </c>
     </row>
   </sheetData>
